--- a/normativa/Anexos/L03T03C03/L03T03C03A03.A.xlsx
+++ b/normativa/Anexos/L03T03C03/L03T03C03A03.A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="1" r:id="rId1"/>
@@ -1288,19 +1288,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="3.7109375" style="1"/>
+    <col min="7" max="7" width="80.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1451,7 +1451,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>200</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>1</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2332,7 +2332,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>1</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>1</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>1</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>1</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>1</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>1</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>1</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>1</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>1</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>1</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>1</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>1</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="25"/>
       <c r="C70" s="7"/>
@@ -3715,7 +3715,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>1</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>1</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>1</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>1</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>1</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>1</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>1</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>1</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>1</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>1</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>1</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>1</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>1</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>1</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>1</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>1</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>1</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>1</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>1</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>1</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>1</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>1</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>1</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>1</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>1</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>1</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>1</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>1</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>1</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>1</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>1</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>1</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>1</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>1</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>1</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>1</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>1</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>1</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>1</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>1</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>1</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>1</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>1</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5120,7 +5120,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>1</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>1</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>1</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>1</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>1</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>1</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>1</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>1</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>1</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>1</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>1</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>1</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>1</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>1</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>1</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>1</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>1</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>1</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>1</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>1</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>1</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>1</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>1</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>1</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>1</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>1</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>1</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>1</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>1</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>1</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="H151" s="27"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>1</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>1</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>1</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>1</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>1</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>1</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>1</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>1</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>1</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>1</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>1</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>1</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <v>1</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -6422,7 +6422,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>1</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>1</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>1</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>6</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>6</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>6</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>6</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>6</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>6</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>6</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>6</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>6</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>6</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>6</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>6</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>6</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>6</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>6</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>6</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>6</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>6</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A187" s="28">
         <v>6</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>6</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>6</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>6</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>6</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>6</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>6</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>6</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>6</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>6</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>6</v>
       </c>
@@ -7359,7 +7359,7 @@
   <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 3°
 Título III
 Capítulo III
@@ -7376,13 +7376,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AF2"/>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="AE2" s="40"/>
       <c r="AF2" s="40"/>
     </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8516,7 +8516,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8LIBRO 5°
 TÍTULO I
 Capítulo II
@@ -8532,7 +8532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
